--- a/ICAw_notes - move to GitHub issues.xlsx
+++ b/ICAw_notes - move to GitHub issues.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\eegDb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>'subject'</t>
   </si>
@@ -30,21 +35,12 @@
     <t>task'</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>- interfejs do detalicznej edycji wersji/rejestrów (dużo roboty, mam na to już pomysł)</t>
-  </si>
-  <si>
     <t>- opcje ICA - pop up menu na jakich wersjach robić itp. Na razie przycisk ICA włącza default: ICA na wszystkich wybranych rejestrach, dla wszystkich ich wersji, które nie mają jeszcze wag ICA. Mało roboty.</t>
   </si>
   <si>
-    <t>- zmiana wyświetlania info o danym rejestrze ICAw (sporo roboty, zależy od ambicji)</t>
-  </si>
-  <si>
     <t>- interfejs do porównaniela ICA między wersjami / rejestrami ?</t>
   </si>
   <si>
@@ -99,12 +95,6 @@
     <t>[  ] zmienić cooleegplot pod kilkoma względami:</t>
   </si>
   <si>
-    <t>      - plotowanie elektrod z badchan w jakimś </t>
-  </si>
-  <si>
-    <t>         kolorze (np. wyszarzonych)</t>
-  </si>
-  <si>
     <t>      - plotowanie sygnału z komponentów z</t>
   </si>
   <si>
@@ -141,18 +131,6 @@
     <t>     cooleegplot z możliwościami zaznaczeń epoch różnie i wywaleniem złych.</t>
   </si>
   <si>
-    <t>main gui do tego componentu?</t>
-  </si>
-  <si>
-    <t>    (np. 3xnb of epochs czy cos). Nie wiem czy to jest hard or painfull to code, ale byłoby nice do skanowania</t>
-  </si>
-  <si>
-    <t>   sygnału z długimi epokami</t>
-  </si>
-  <si>
-    <t>[  ] proste menu do tworzenia/edytowania bazy tzn. ustawianie filtrowania, epokowania i skąd pliki</t>
-  </si>
-  <si>
     <t>[  ] opcje w winreject:</t>
   </si>
   <si>
@@ -165,12 +143,6 @@
     <t>COOLEEGPLOT</t>
   </si>
   <si>
-    <t>f) wymuszenia i haracze w celu rozpoznawania typów zaznaczeń</t>
-  </si>
-  <si>
-    <t>h) zaimplementować dodawanie zaznaczeń gdy removed są wypełnione  (trzeba odrzucać do removed a nie nadpisywać - jednocześnie updateować info czy obecne zaznaczenia są dodatkowe do obecnych removed czy z przeszłości i w ogóle dużo z tym problemów managementowych...)</t>
-  </si>
-  <si>
     <t>COMP_EXPLORE</t>
   </si>
   <si>
@@ -186,28 +158,13 @@
     <t>eegplot2: error przy klikaniu na zmiane scale</t>
   </si>
   <si>
-    <t>[ X ] access dowolny nb componentu - może tam gdzie sie beda wyswietlac glowki, bedzie mozna kliknac na numerek pod i wtedy przeniesie main gui do tego componentu?</t>
-  </si>
-  <si>
     <t>[ X ] parametry topoplot żeby były quickest</t>
   </si>
   <si>
     <t>WINREJECT:</t>
   </si>
   <si>
-    <t>[  ] ICA/AMICA</t>
-  </si>
-  <si>
-    <t>OGÓLNIE:</t>
-  </si>
-  <si>
     <t>[   ] opcjonalnie można dodać opcję puszczenia i wyswietlenia wyników adjusta, ale mnie nie powalił wiec nie wiem czy warto.</t>
-  </si>
-  <si>
-    <t>[   ] add color &amp; name if not present</t>
-  </si>
-  <si>
-    <t>[ X ] eegplot zeby mogł mieć guziczki do skipowania innej ilosci  epok niz 1 lub nb of epochs display </t>
   </si>
 </sst>
 </file>
@@ -293,6 +250,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -340,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B97"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,353 +555,275 @@
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>51</v>
+      <c r="A34" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>47</v>
+      <c r="A36" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="B40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
+      <c r="A42" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
+      <c r="A43" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>57</v>
+      <c r="A44" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>21</v>
+      <c r="A46" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>20</v>
+      <c r="A47" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A48" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A79" s="7"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+      <c r="A81" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,10 +833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A97"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,331 +844,256 @@
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
+      <c r="A25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
+      <c r="A26" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>31</v>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>55</v>
+      <c r="A28" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A31" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>51</v>
+      <c r="A34" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>47</v>
+      <c r="A36" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
+      <c r="A42" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
+      <c r="A43" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>57</v>
+      <c r="A44" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>21</v>
+      <c r="A46" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>20</v>
+      <c r="A47" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A48" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A79" s="7"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+      <c r="A81" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
